--- a/System design references.xlsx
+++ b/System design references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65292086-7E35-E84E-81F4-8B5DD724B6E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0252A2A-A798-404D-9ACF-629492EDD1D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{E063C78C-B6D5-544C-8A9B-D9F54A6B8279}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t>https://shobhankblog.wordpress.com/2016/04/24/design-interview-questions/</t>
+  </si>
+  <si>
+    <t>A Brief History of Scaling LinkedIn</t>
+  </si>
+  <si>
+    <t>https://engineering.linkedin.com/architecture/brief-history-scaling-linkedin</t>
+  </si>
+  <si>
+    <t>https://engineering.linkedin.com/performance/optimizing-linux-memory-management-low-latency-high-throughput-databases</t>
+  </si>
+  <si>
+    <t>Optimizing Linux Memory Management for Low-latency / High-throughput Databases</t>
+  </si>
+  <si>
+    <t>https://engineering.linkedin.com/real-time-distributed-graph/using-set-cover-algorithm-optimize-query-latency-large-scale-distributed</t>
+  </si>
+  <si>
+    <t>Using set cover algorithm to optimize query latency for a large scale distributed graph</t>
   </si>
 </sst>
 </file>
@@ -476,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5D3CB4-7CFF-BF4D-BF1B-608746DEB32F}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,6 +595,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1C4DF3A3-35DB-FB44-B4E2-130C2D31B18F}"/>
@@ -586,6 +628,9 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{3F528DAB-BD1D-8249-8043-76B321BD139D}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{896B6695-6F1C-C44F-8687-534A7C928BB1}"/>
     <hyperlink ref="B13" r:id="rId7" xr:uid="{069A8CAE-B823-C445-86B3-2F40B371316D}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{8E7B6D99-50B7-CA4E-9768-29047B0BA336}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{9BB82132-2B31-0246-8511-74E0C5F7CFB5}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{8DBC1701-A036-0A4D-B96B-7A7147C9CF3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
